--- a/development/06-Truss calculations/bracing.xlsx
+++ b/development/06-Truss calculations/bracing.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed\Desktop\Graduation-project\development\06-sections\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed\Desktop\Graduation-project\development\06-Truss calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27360" windowHeight="11505"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>type</t>
   </si>
@@ -99,6 +99,63 @@
   </si>
   <si>
     <t>use HSS</t>
+  </si>
+  <si>
+    <t>gusset plate weld calclulation for max compression and tension</t>
+  </si>
+  <si>
+    <t>Note: two members connected with one gusset plate are with same force with different direction , so there is no compression or tension force only shear force exists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shear force = </t>
+  </si>
+  <si>
+    <t>tons</t>
+  </si>
+  <si>
+    <t>2* 4 * cos( 56 ) =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weld length = </t>
+  </si>
+  <si>
+    <t>weld thickness = Sw</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>shear force / 0.2 * Fu * Sw + 2 * Sw</t>
+  </si>
+  <si>
+    <t>Bolts required</t>
+  </si>
+  <si>
+    <t>Rsh</t>
+  </si>
+  <si>
+    <t>bolt diameter</t>
+  </si>
+  <si>
+    <t>bolt strength</t>
+  </si>
+  <si>
+    <t>ton/cm2</t>
+  </si>
+  <si>
+    <t>R bearing</t>
+  </si>
+  <si>
+    <t>bolts count</t>
+  </si>
+  <si>
+    <t>bolts</t>
+  </si>
+  <si>
+    <t>R total max</t>
   </si>
 </sst>
 </file>
@@ -176,30 +233,30 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -484,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,204 +553,331 @@
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="3">
         <v>3.7</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="3">
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="2">
         <v>3.5</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="2">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="E5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="3">
         <v>5.7</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="2">
         <v>7.5</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="3">
         <v>100</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="E8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="2">
         <v>4</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="3">
         <v>153600</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="3">
         <v>153600</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="2">
         <f>B10*1000*B7</f>
         <v>1152000000</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="2">
         <f>C10*1000*C7</f>
         <v>921600000</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="3">
         <v>2</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="E12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12">
+        <f>2*4*COS(56)</f>
+        <v>6.8257608617806733</v>
+      </c>
+      <c r="J12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="2">
         <v>100</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="E13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8">
+        <v>4</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="3">
         <v>10</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="E14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14">
+        <f>I12/(0.2*5.2*G13/10) + 2 * 0.1 * G13</f>
+        <v>17.20807899466508</v>
+      </c>
+      <c r="J14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="2">
         <v>384000</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="2">
         <v>384000</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="E15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="3">
         <f>B15*1000*B7</f>
         <v>2880000000</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="3">
         <f>C15*1000*C7</f>
         <v>2304000000</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="2">
         <v>4</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="E17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17">
+        <v>10.9</v>
+      </c>
+      <c r="G17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="3">
         <f>MAX(B4/(1.04*4*0.1*B17), 5 ) + 2 * 0.1 * B17</f>
         <v>5.8</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="3">
         <f>MAX(C4/(1.04*4*0.1*C17), 5 ) + 2 * 0.1 * C17</f>
         <v>5.8</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="E18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="5">
@@ -704,247 +888,277 @@
         <f>((C16-C11)/C16)</f>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19">
+        <f>PI()*POWER(F16/10,2)*0.25*F17*0.2 *1.2</f>
+        <v>2.0546015954477248</v>
+      </c>
+      <c r="G19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="E20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20">
+        <f>1 * F16*0.1 * 0.6 * 5.2 * 1.2</f>
+        <v>3.7439999999999998</v>
+      </c>
+      <c r="G20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="C21" s="8"/>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21">
+        <f>MIN(F19:F20) * F18</f>
+        <v>4.1092031908954496</v>
+      </c>
+      <c r="G21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="4">
         <v>1</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="4">
         <v>2</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="3">
         <v>0.03</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="2">
         <v>2.4</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="2">
         <v>1</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="3">
         <v>50</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="3">
         <v>50</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="2">
         <v>4</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="2">
         <v>4</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="3">
         <v>72800</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="3">
         <v>72800</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="3">
         <v>72800</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="2">
         <f>B33*1000*B30</f>
         <v>174720000</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="2">
         <f>C33*1000*C30</f>
         <v>72800000</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="2">
         <f>D33*1000*D30</f>
         <v>72800000</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="3">
         <v>1</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="3">
         <v>1</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="2">
         <v>60</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="2">
         <v>60</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="2">
         <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="3">
         <v>6</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="3">
         <v>6</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="2">
         <v>69100</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="2">
         <v>69100</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="2">
         <v>123000</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="3">
         <f>B38*1000*B30</f>
         <v>165840000</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="3">
         <f>C38*1000*C30</f>
         <v>69100000</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="3">
         <f>D38*1000*D30</f>
         <v>123000000</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="2">
         <v>4</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="2">
         <v>4</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="3">
         <f>MAX(B29/(1.04*4*0.1*B40), 5 ) + 2 * 0.1 * B40</f>
         <v>5.8</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="3">
         <f>MAX(C29/(1.04*4*0.1*C40), 5 ) + 2 * 0.1 * C40</f>
         <v>5.8</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="3">
         <f>MAX(D29/(1.04*4*0.1*D40), 5 ) + 2 * 0.1 * D40</f>
         <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B42" s="5">
@@ -961,35 +1175,38 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
+      <c r="A43" s="7"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+      <c r="A45" s="7"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="A26:D27"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:D45"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:C22"/>
+  <mergeCells count="22">
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E5:J7"/>
+    <mergeCell ref="E8:J11"/>
+    <mergeCell ref="G12:H12"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
@@ -997,6 +1214,12 @@
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="A26:D27"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D45"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
